--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\Comcast_selenium_framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A187A5-D676-4F27-94F2-1FEC05590C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18483BF-C32B-4127-A079-E502F75365A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Organisation name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>BengaluruBulls_</t>
   </si>
   <si>
-    <t>POMEndtoEnd_</t>
-  </si>
-  <si>
     <t>Industryname</t>
   </si>
   <si>
@@ -62,6 +59,21 @@
   </si>
   <si>
     <t>Creating contact</t>
+  </si>
+  <si>
+    <t>Rcb</t>
+  </si>
+  <si>
+    <t>BengaluruBulls</t>
+  </si>
+  <si>
+    <t>BFC</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -386,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -413,20 +425,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>9</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -438,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B577E-05DC-4BA2-A3EC-F7943DBF21FD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -453,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -464,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
